--- a/public/assets/excel/sample_delegations.xlsx
+++ b/public/assets/excel/sample_delegations.xlsx
@@ -77,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -104,13 +104,6 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
@@ -164,16 +157,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -432,143 +429,125 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="24.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="2" width="8.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="E4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/public/assets/excel/sample_delegations.xlsx
+++ b/public/assets/excel/sample_delegations.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t xml:space="preserve">code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">invitation_from_id</t>
   </si>
@@ -46,22 +43,13 @@
     <t xml:space="preserve">note2</t>
   </si>
   <si>
-    <t xml:space="preserve">DA23-001</t>
-  </si>
-  <si>
     <t xml:space="preserve">First delegation</t>
   </si>
   <si>
     <t xml:space="preserve">Additional notes</t>
   </si>
   <si>
-    <t xml:space="preserve">DA23-002</t>
-  </si>
-  <si>
     <t xml:space="preserve">Second delegation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DA23-003</t>
   </si>
   <si>
     <t xml:space="preserve">Third delegation</t>
@@ -157,16 +145,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -429,10 +413,10 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.28"/>
@@ -442,64 +426,60 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="24.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="2" width="8.59"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="1" width="8.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="H1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="H2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
+      <c r="A3" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>2</v>
@@ -513,16 +493,14 @@
       <c r="E3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
+      <c r="A4" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>3</v>
@@ -531,20 +509,18 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <v>1</v>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="H4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/public/assets/excel/sample_delegations.xlsx
+++ b/public/assets/excel/sample_delegations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">invitation_from_id</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t xml:space="preserve">invitation_status_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">participation_status_id</t>
   </si>
   <si>
     <t xml:space="preserve">note1</t>
@@ -410,18 +407,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.12"/>
@@ -448,10 +445,6 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -466,16 +459,12 @@
       <c r="D2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>1</v>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -490,13 +479,9 @@
       <c r="D3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="0"/>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -511,16 +496,12 @@
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>1</v>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/public/assets/excel/sample_delegations.xlsx
+++ b/public/assets/excel/sample_delegations.xlsx
@@ -22,16 +22,76 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t xml:space="preserve">invitation_from_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">continent_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">country_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invitation_status_id</t>
+    <t xml:space="preserve">invitation_from_code</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">continent_</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">code</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">country_</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">code</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">invitation_status_</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">code</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">note1</t>
@@ -62,7 +122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -92,6 +152,13 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -410,7 +477,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -426,7 +493,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="1" width="8.59"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>

--- a/public/assets/excel/sample_delegations.xlsx
+++ b/public/assets/excel/sample_delegations.xlsx
@@ -20,78 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">import_code</t>
+  </si>
   <si>
     <t xml:space="preserve">invitation_from_code</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">continent_</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">code</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">country_</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">code</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">invitation_status_</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">code</t>
-    </r>
+    <t xml:space="preserve">continent_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invitation_status_code</t>
   </si>
   <si>
     <t xml:space="preserve">note1</t>
@@ -122,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -152,13 +95,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -474,10 +410,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -512,9 +448,12 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
@@ -526,17 +465,18 @@
       <c r="D2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
+      <c r="E2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="A3" s="0"/>
       <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
@@ -546,14 +486,15 @@
       <c r="D3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
+      <c r="E3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
+      <c r="A4" s="0"/>
       <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
@@ -561,13 +502,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
